--- a/resource/30.analysis/03.Bravomylife요구사항(1차 초안).xlsx
+++ b/resource/30.analysis/03.Bravomylife요구사항(1차 초안).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\30.analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -669,9 +669,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +732,22 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -838,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,44 +912,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="D62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1232,15 +1263,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
       <c r="A2" s="6"/>
@@ -1275,16 +1306,16 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="31">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -1296,12 +1327,12 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="12" t="s">
         <v>76</v>
       </c>
@@ -1311,13 +1342,13 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="31">
+      <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="22" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="25" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1326,25 +1357,25 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="31">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="13" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="31">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="12" t="s">
         <v>48</v>
       </c>
@@ -1354,12 +1385,12 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="31">
+      <c r="A9" s="22">
         <v>7.3</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
@@ -1369,15 +1400,15 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="31">
+      <c r="A10" s="22">
         <v>8.6</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="25" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1386,26 +1417,26 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="31">
+      <c r="A11" s="22">
         <v>9.9</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="31">
+      <c r="A12" s="22">
         <v>11.2</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="22" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1414,51 +1445,51 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="31">
+      <c r="A13" s="22">
         <v>12.5</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="23"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="31">
+      <c r="A14" s="22">
         <v>13.8</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="5" t="s">
         <v>71</v>
       </c>
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="31">
+      <c r="A15" s="22">
         <v>15.1</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="13" t="s">
         <v>72</v>
       </c>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="31">
+      <c r="A16" s="22">
         <v>16.399999999999999</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="16" t="s">
         <v>69</v>
       </c>
@@ -1468,12 +1499,12 @@
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="31">
+      <c r="A17" s="22">
         <v>17.7</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="12" t="s">
         <v>41</v>
       </c>
@@ -1483,12 +1514,12 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="31">
+      <c r="A18" s="22">
         <v>19</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="25" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="28" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -1500,12 +1531,12 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="31">
+      <c r="A19" s="22">
         <v>20.3</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="12" t="s">
         <v>16</v>
       </c>
@@ -1515,13 +1546,13 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="31">
+      <c r="A20" s="22">
         <v>21.6</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="22" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="25" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1530,26 +1561,26 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="31">
+      <c r="A21" s="22">
         <v>22.9</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="13" t="s">
         <v>72</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="31">
+      <c r="A22" s="22">
         <v>24.2</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
         <v>80</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -1558,51 +1589,51 @@
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" s="9" customFormat="1">
-      <c r="A23" s="31">
+      <c r="A23" s="22">
         <v>25.5</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="14" t="s">
         <v>39</v>
       </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" s="9" customFormat="1">
-      <c r="A24" s="31">
+      <c r="A24" s="22">
         <v>26.8</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="31">
+      <c r="A25" s="22">
         <v>28.1</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="31">
+      <c r="A26" s="22">
         <v>29.4</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="15" t="s">
         <v>82</v>
       </c>
@@ -1612,12 +1643,12 @@
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="31">
+      <c r="A27" s="22">
         <v>30.7</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="12" t="s">
         <v>21</v>
       </c>
@@ -1627,13 +1658,13 @@
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="31">
+      <c r="A28" s="22">
         <v>32</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="22" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="14" t="s">
@@ -1642,25 +1673,25 @@
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="31">
+      <c r="A29" s="22">
         <v>33.299999999999997</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="5" t="s">
         <v>87</v>
       </c>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="31">
+      <c r="A30" s="22">
         <v>34.6</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="16" t="s">
         <v>79</v>
       </c>
@@ -1670,13 +1701,13 @@
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="31">
+      <c r="A31" s="22">
         <v>35.9</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="22" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="25" t="s">
         <v>83</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -1685,39 +1716,39 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="31">
+      <c r="A32" s="22">
         <v>37.200000000000003</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="23"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="31">
+      <c r="A33" s="22">
         <v>38.5</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="24"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="5" t="s">
         <v>93</v>
       </c>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="31">
+      <c r="A34" s="22">
         <v>39.799999999999997</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="22" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="25" t="s">
         <v>86</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -1726,38 +1757,38 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="31">
+      <c r="A35" s="22">
         <v>41.1</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="23"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="31">
+      <c r="A36" s="22">
         <v>42.4</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="24"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="5" t="s">
         <v>96</v>
       </c>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="31">
+      <c r="A37" s="22">
         <v>43.7</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="16" t="s">
         <v>84</v>
       </c>
@@ -1767,12 +1798,12 @@
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="31">
+      <c r="A38" s="22">
         <v>45</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="16" t="s">
         <v>85</v>
       </c>
@@ -1782,15 +1813,15 @@
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="31">
+      <c r="A39" s="22">
         <v>46.3</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="22" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="25" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -1799,26 +1830,26 @@
       <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="31">
+      <c r="A40" s="22">
         <v>47.6</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="5" t="s">
         <v>105</v>
       </c>
       <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="31">
+      <c r="A41" s="22">
         <v>48.9</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="22" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="25" t="s">
         <v>104</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -1827,26 +1858,26 @@
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="31">
+      <c r="A42" s="22">
         <v>50.2</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="5" t="s">
         <v>102</v>
       </c>
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="31">
+      <c r="A43" s="22">
         <v>51.5</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="22" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -1855,56 +1886,56 @@
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="31">
+      <c r="A44" s="22">
         <v>52.8</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="5" t="s">
         <v>106</v>
       </c>
       <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="31">
+      <c r="A45" s="22">
         <v>54.1</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="22" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="21" t="s">
         <v>146</v>
       </c>
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="31">
+      <c r="A46" s="22">
         <v>55.4</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="17" t="s">
         <v>145</v>
       </c>
       <c r="G46" s="12"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="31">
+      <c r="A47" s="22">
         <v>56.7</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="22" t="s">
+      <c r="B47" s="28"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -1913,65 +1944,65 @@
       <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="31">
+      <c r="A48" s="22">
         <v>58</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
       <c r="F48" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="31">
+      <c r="A49" s="22">
         <v>59.3</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
       <c r="F49" s="17" t="s">
         <v>51</v>
       </c>
       <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="31">
+      <c r="A50" s="22">
         <v>60.6</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="5" t="s">
         <v>54</v>
       </c>
       <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="31">
+      <c r="A51" s="22">
         <v>61.9</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="14" t="s">
         <v>55</v>
       </c>
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="31">
+      <c r="A52" s="22">
         <v>63.2</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="22" t="s">
+      <c r="B52" s="28"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="25" t="s">
         <v>58</v>
       </c>
       <c r="F52" s="14" t="s">
@@ -1980,157 +2011,157 @@
       <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="31">
+      <c r="A53" s="22">
         <v>64.5</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
       <c r="F53" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="31">
+      <c r="A54" s="22">
         <v>65.8</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
       <c r="F54" s="14" t="s">
         <v>57</v>
       </c>
       <c r="G54" s="12"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="31">
+      <c r="A55" s="22">
         <v>67.099999999999994</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
       <c r="F55" s="14" t="s">
         <v>81</v>
       </c>
       <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="31">
+      <c r="A56" s="22">
         <v>68.400000000000006</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="27"/>
       <c r="F56" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="31">
+      <c r="A57" s="22">
         <v>69.7</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="22" t="s">
+      <c r="B57" s="28"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="20" t="s">
         <v>62</v>
       </c>
       <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="31">
+      <c r="A58" s="22">
         <v>71</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="21" t="s">
+      <c r="B58" s="28"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="20" t="s">
         <v>63</v>
       </c>
       <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="31">
+      <c r="A59" s="22">
         <v>72.3</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="21" t="s">
+      <c r="B59" s="28"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="20" t="s">
         <v>64</v>
       </c>
       <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="31">
+      <c r="A60" s="22">
         <v>73.599999999999994</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="21" t="s">
+      <c r="B60" s="28"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="31">
+      <c r="A61" s="22">
         <v>74.900000000000006</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
       <c r="F61" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="31">
+      <c r="A62" s="22">
         <v>76.2</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
       <c r="F62" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A63" s="31">
+      <c r="A63" s="22">
         <v>77.5</v>
       </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="31">
+      <c r="A64" s="22">
         <v>78.8</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="22" t="s">
+      <c r="B64" s="28"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25" t="s">
         <v>99</v>
       </c>
       <c r="E64" s="18" t="s">
@@ -2142,12 +2173,12 @@
       <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="31">
+      <c r="A65" s="22">
         <v>80.099999999999994</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="23"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="18" t="s">
         <v>30</v>
       </c>
@@ -2157,13 +2188,13 @@
       <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="31">
+      <c r="A66" s="22">
         <v>81.400000000000006</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="22" t="s">
+      <c r="B66" s="28"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="25" t="s">
         <v>100</v>
       </c>
       <c r="F66" s="8" t="s">
@@ -2172,64 +2203,64 @@
       <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="31">
+      <c r="A67" s="22">
         <v>82.7</v>
       </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
       <c r="F67" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="31">
+      <c r="A68" s="22">
         <v>84</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
       <c r="F68" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="31">
+      <c r="A69" s="22">
         <v>85.3</v>
       </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
       <c r="F69" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G69" s="16"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="31">
+      <c r="A70" s="22">
         <v>86.6</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="24"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="27"/>
       <c r="F70" s="8" t="s">
         <v>110</v>
       </c>
       <c r="G70" s="16"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="31">
+      <c r="A71" s="22">
         <v>87.9</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="23"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="18" t="s">
         <v>46</v>
       </c>
@@ -2239,72 +2270,72 @@
       <c r="G71" s="18"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="31">
+      <c r="A72" s="22">
         <v>89.2</v>
       </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="22" t="s">
+      <c r="B72" s="28"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="32" t="s">
         <v>155</v>
       </c>
       <c r="G72" s="18"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="31">
+      <c r="A73" s="22">
         <v>90.5</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="22" t="s">
+      <c r="B73" s="28"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F73" s="35" t="s">
         <v>156</v>
       </c>
       <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="31">
+      <c r="A74" s="22">
         <v>91.8</v>
       </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="30" t="s">
+      <c r="B74" s="28"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="35" t="s">
         <v>157</v>
       </c>
       <c r="G74" s="18"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="31">
+      <c r="A75" s="22">
         <v>93.1</v>
       </c>
-      <c r="B75" s="25"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="30" t="s">
+      <c r="B75" s="28"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="35" t="s">
         <v>158</v>
       </c>
       <c r="G75" s="18"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="31">
+      <c r="A76" s="22">
         <v>94.4</v>
       </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25" t="s">
+      <c r="B76" s="28"/>
+      <c r="C76" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E76" s="18" t="s">
@@ -2316,12 +2347,12 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="31">
+      <c r="A77" s="22">
         <v>95.7</v>
       </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="23"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="18" t="s">
         <v>114</v>
       </c>
@@ -2331,12 +2362,12 @@
       <c r="G77" s="12"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="31">
+      <c r="A78" s="22">
         <v>97</v>
       </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="24"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="18" t="s">
         <v>113</v>
       </c>
@@ -2346,12 +2377,12 @@
       <c r="G78" s="12"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="31">
+      <c r="A79" s="22">
         <v>98.3</v>
       </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="22" t="s">
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E79" s="18" t="s">
@@ -2363,12 +2394,12 @@
       <c r="G79" s="12"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="31">
+      <c r="A80" s="22">
         <v>99.6</v>
       </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="23"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="18" t="s">
         <v>117</v>
       </c>
@@ -2378,12 +2409,12 @@
       <c r="G80" s="12"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="31">
+      <c r="A81" s="22">
         <v>100.9</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="24"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="27"/>
       <c r="E81" s="18" t="s">
         <v>118</v>
       </c>
@@ -2393,12 +2424,12 @@
       <c r="G81" s="12"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="31">
+      <c r="A82" s="22">
         <v>102.2</v>
       </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="22" t="s">
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="25" t="s">
         <v>119</v>
       </c>
       <c r="E82" s="18" t="s">
@@ -2410,12 +2441,12 @@
       <c r="G82" s="12"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="31">
+      <c r="A83" s="22">
         <v>103.5</v>
       </c>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="23"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="26"/>
       <c r="E83" s="18" t="s">
         <v>121</v>
       </c>
@@ -2425,12 +2456,12 @@
       <c r="G83" s="12"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="31">
+      <c r="A84" s="22">
         <v>104.8</v>
       </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="24"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="27"/>
       <c r="E84" s="18" t="s">
         <v>122</v>
       </c>
@@ -2440,12 +2471,12 @@
       <c r="G84" s="12"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="31">
+      <c r="A85" s="22">
         <v>106.1</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="22" t="s">
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="25" t="s">
         <v>131</v>
       </c>
       <c r="E85" s="18" t="s">
@@ -2457,27 +2488,27 @@
       <c r="G85" s="12"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="31">
+      <c r="A86" s="22">
         <v>107.4</v>
       </c>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="18" t="s">
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="14" t="s">
+      <c r="F86" s="32" t="s">
         <v>143</v>
       </c>
       <c r="G86" s="12"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="31">
+      <c r="A87" s="22">
         <v>108.7</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="23"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="18" t="s">
         <v>147</v>
       </c>
@@ -2487,12 +2518,12 @@
       <c r="G87" s="18"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="31">
+      <c r="A88" s="22">
         <v>110</v>
       </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="24"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="27"/>
       <c r="E88" s="18" t="s">
         <v>139</v>
       </c>
@@ -2502,15 +2533,15 @@
       <c r="G88" s="12"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="31">
+      <c r="A89" s="22">
         <v>111.3</v>
       </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="22" t="s">
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="25" t="s">
         <v>133</v>
       </c>
       <c r="F89" s="5" t="s">
@@ -2519,26 +2550,26 @@
       <c r="G89" s="12"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="31">
+      <c r="A90" s="22">
         <v>112.6</v>
       </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="24"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="27"/>
       <c r="F90" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G90" s="12"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="31">
+      <c r="A91" s="22">
         <v>113.9</v>
       </c>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="20" t="s">
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="19" t="s">
         <v>149</v>
       </c>
       <c r="F91" s="14" t="s">
@@ -2547,12 +2578,12 @@
       <c r="G91" s="18"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="31">
+      <c r="A92" s="22">
         <v>115.2</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="24"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="18" t="s">
         <v>135</v>
       </c>
@@ -2563,12 +2594,17 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C4:C75"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E57:E63"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:E36"/>
     <mergeCell ref="B4:B92"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D4:D9"/>
@@ -2585,18 +2621,13 @@
     <mergeCell ref="D64:D71"/>
     <mergeCell ref="E66:E70"/>
     <mergeCell ref="D89:D92"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E57:E63"/>
+    <mergeCell ref="C4:C75"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="D72:D75"/>
     <mergeCell ref="D47:D63"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:E36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
